--- a/assets/disciplinas/LOQ4204.xlsx
+++ b/assets/disciplinas/LOQ4204.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar  os conceitos básicos da Ciência Econômica, capacitando-os a compreender os principais conceitos micro e macroeconômicos e a interpretar o discurso e a prática da economia, orientados pelo seu próprio senso crítico.</t>
+    <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>11079086 - Herlandí de Souza Andrade</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>A. Microeconomia. B. Macroeconomia. C. Desenvolvimento Econômico. D. Economia Internacional. E. Economia Brasileira</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>A. MICROECONOMIA: 1. Introdução aos conceitos de Economia e fundamentos da análise microeconômica. 2. Teoria do consumidor e da demanda. 3. Teoria da firma e da oferta. 4. Custos e formação de preços. 5. Estruturas de Mercado 6. Comportamento estratégico e concorrência. 7. Tecnologia como fator de produção. 8. Sustentabilidade: recursos, custos e indicadores ambientais. B. MACROECONOMIA: 1. Fundamentos da análise macroeconômica. 2. Contabilidade nacional. 3. Equilíbrios clássicos e keynesiano. 4. Sistema monetário. 5. Política fiscal. 6. Economia mundial e comércio internacional. 7. Fundamentos da regressão como ferramenta para quantificar relações econômicas. 8. Setor público. C. DESENVOLVIMENTO ECONÔMICO: 1. Fatores de Crescimento. 2. Fontes de Desenvolvimento. 3. Financiamento do Desenvolvimento Econômico. 4. Um modelo de Crescimento Econômico. 5. O Processo de internacionalização e globalização.D. ECONOMIA INTERNACIONAL: 1. Fundamentos do Comércio Internacional. 2. Determinação das Taxas de Câmbio. 3. Políticas Externas. 4. Fatores determinantes do comportamento das importações e exportações.E. ECONOMIA BRASILEIRA: 1. A experiência histórica da industrialização brasileira. 2. A internacionalização da economia brasileira. 3. Teoria dos ciclos e realidade brasileira. 4. Os ciclos econômicos do Brasil ao longo de sua história recente.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Aritmética dos Projetos, Trabalhos, Exercícios e outras atividades avaliativas realizadas no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude, que incluem a presença e participação dos alunos nas aulas) desenvolvidas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>VASCONCELLOS, M. A. S.; GARCIA, M. E. Fundamentos de Economia. 6 ed. São Paulo: Saraiva, 2018.GREMAUD, A. P. Introdução à Economia. São Paulo: Atlas, 2017.ROSSETTI, J. P. Introdução à Economia - Livro Texto. São Paulo: Atlas, 2016.VASCONCELLOS, M. A. S. ECONOMIA: Micro e Macro. São Paulo: Atlas, 2015.ALBERGONI, L. INTRODUÇÃO À ECONOMIA: Aplicações no Cotidiano. São Paulo: Atlas, 2015.GREMAUD, A. P.; VASCONCELLOS, M. A. S.; TONETO JÚNIOR, R. Economia Brasileira Contemporânea. 8 ed. São Paulo: Atlas, 2017.MÉNARD, C.; SAES, M. S. M.; SILVA, V. L. S.; RAYNAUD, E. Economia das Organizações: Formas Plurais e Desafios. São Paulo: Atlas, 2014.BACHA et Al. Estado da Economia Mundial - Desafios e Respostas - Seminário em Homenagem a Pedro Malan. São Paulo: LTC, 2015.BACHA , Edmar. Introdução à Macroeconomia: Uma perspectiva brasileira. Rio de Janeiro: Campus,1987.BEGG, D.; DORNBUSCH, R.; FISCHER, S. Introdução A Economia. Rio de Janeiro: Campus, 2003. FURTADO, C. Formação econômica do Brasil. São Paulo: Companhia Editora Nacional, 2003.GRAMAUD, A. P. et alli. Manual de economia. São Paulo. Saraiva. 2004.GRAMAUD, A. P. et alli. Economia Brasileira Contemporânea. 6.ed. São Paulo. Atlas, 2006.HUNT, E. K.; SHERMAN, H. J. História do Pensamento Econômico. Petrópolis : Vozes, 1997.MANKIW, N.G. Introdução à economia. São Paulo: Thomson Learning, 2006.SAMUELSON, P. Introdução à Economia. New York: Mc Graw-Hill Book Company.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4204.xlsx
+++ b/assets/disciplinas/LOQ4204.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar  os conceitos básicos da Ciência Econômica, capacitando-os a compreender os principais conceitos micro e macroeconômicos e a interpretar o discurso e a prática da economia, orientados pelo seu próprio senso crítico.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Introduce the students of Production Engineering to the basic concepts of Economic Science, enabling students to understand the main micro and macroeconomic concepts and to interpret the discourse and practice of economics, guided by their own critical sense.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Introduce the students of Production Engineering to the basic concepts of Economic Science, enabling students to understand the main micro and macroeconomic concepts and to interpret the discourse and practice of economics, guided by their own critical sense.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>A. Microeconomia. B. Macroeconomia. C. Desenvolvimento Econômico. D. Economia Internacional. E. Economia Brasileira</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>A. MICROECONOMIA: 1. Introdução aos conceitos de Economia e fundamentos da análise microeconômica. 2. Teoria do consumidor e da demanda. 3. Teoria da firma e da oferta. 4. Custos e formação de preços. 5. Estruturas de Mercado 6. Comportamento estratégico e concorrência. 7. Tecnologia como fator de produção. 8. Sustentabilidade: recursos, custos e indicadores ambientais. B. MACROECONOMIA: 1. Fundamentos da análise macroeconômica. 2. Contabilidade nacional. 3. Equilíbrios clássicos e keynesiano. 4. Sistema monetário. 5. Política fiscal. 6. Economia mundial e comércio internacional. 7. Fundamentos da regressão como ferramenta para quantificar relações econômicas. 8. Setor público. C. DESENVOLVIMENTO ECONÔMICO: 1. Fatores de Crescimento. 2. Fontes de Desenvolvimento. 3. Financiamento do Desenvolvimento Econômico. 4. Um modelo de Crescimento Econômico. 5. O Processo de internacionalização e globalização.D. ECONOMIA INTERNACIONAL: 1. Fundamentos do Comércio Internacional. 2. Determinação das Taxas de Câmbio. 3. Políticas Externas. 4. Fatores determinantes do comportamento das importações e exportações.E. ECONOMIA BRASILEIRA: 1. A experiência histórica da industrialização brasileira. 2. A internacionalização da economia brasileira. 3. Teoria dos ciclos e realidade brasileira. 4. Os ciclos econômicos do Brasil ao longo de sua história recente.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
+    <t>Média Aritmética dos Projetos, Trabalhos, Exercícios e outras atividades avaliativas realizadas no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude, que incluem a presença e participação dos alunos nas aulas) desenvolvidas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média Aritmética dos Projetos, Trabalhos, Exercícios e outras atividades avaliativas realizadas no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude, que incluem a presença e participação dos alunos nas aulas) desenvolvidas.</t>
+    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
+    <t>VASCONCELLOS, M. A. S.; GARCIA, M. E. Fundamentos de Economia. 6 ed. São Paulo: Saraiva, 2018.GREMAUD, A. P. Introdução à Economia. São Paulo: Atlas, 2017.ROSSETTI, J. P. Introdução à Economia - Livro Texto. São Paulo: Atlas, 2016.VASCONCELLOS, M. A. S. ECONOMIA: Micro e Macro. São Paulo: Atlas, 2015.ALBERGONI, L. INTRODUÇÃO À ECONOMIA: Aplicações no Cotidiano. São Paulo: Atlas, 2015.GREMAUD, A. P.; VASCONCELLOS, M. A. S.; TONETO JÚNIOR, R. Economia Brasileira Contemporânea. 8 ed. São Paulo: Atlas, 2017.MÉNARD, C.; SAES, M. S. M.; SILVA, V. L. S.; RAYNAUD, E. Economia das Organizações: Formas Plurais e Desafios. São Paulo: Atlas, 2014.BACHA et Al. Estado da Economia Mundial - Desafios e Respostas - Seminário em Homenagem a Pedro Malan. São Paulo: LTC, 2015.BACHA , Edmar. Introdução à Macroeconomia: Uma perspectiva brasileira. Rio de Janeiro: Campus,1987.BEGG, D.; DORNBUSCH, R.; FISCHER, S. Introdução A Economia. Rio de Janeiro: Campus, 2003. FURTADO, C. Formação econômica do Brasil. São Paulo: Companhia Editora Nacional, 2003.GRAMAUD, A. P. et alli. Manual de economia. São Paulo. Saraiva. 2004.GRAMAUD, A. P. et alli. Economia Brasileira Contemporânea. 6.ed. São Paulo. Atlas, 2006.HUNT, E. K.; SHERMAN, H. J. História do Pensamento Econômico. Petrópolis : Vozes, 1997.MANKIW, N.G. Introdução à economia. São Paulo: Thomson Learning, 2006.SAMUELSON, P. Introdução à Economia. New York: Mc Graw-Hill Book Company.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
